--- a/2.4.2_2.4.14.xlsx
+++ b/2.4.2_2.4.14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\github_repo\finmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CBD382-274B-4EEC-8F24-D58245A17394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B05F1DF-3A85-4626-A245-52D65A153604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{8F1AC2AC-BA45-46E4-B04B-01E953D6CB36}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>d_слож</t>
   </si>
@@ -341,6 +341,50 @@
         <a:xfrm>
           <a:off x="609600" y="9391650"/>
           <a:ext cx="6104762" cy="1123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577071</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>129998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD443CFB-81A1-5D49-121D-BBFF53B0F829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11417300"/>
+          <a:ext cx="6228571" cy="1419048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B2BFEA-3A43-40A9-9AD7-04A77EC9F220}">
-  <dimension ref="B9:K61"/>
+  <dimension ref="B9:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,6 +888,49 @@
         <v>0.20853080568720372</v>
       </c>
     </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <f>((POWER(1+$C$72/B75,B75)-1))</f>
+        <v>0.21000000000000019</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ref="C76:C77" si="0">((POWER(1+$C$72/B76,B76)-1))</f>
+        <v>0.21742617421124888</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="0"/>
+        <v>0.21939108490523185</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I50:J50"/>
